--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_30.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_30.xlsx
@@ -508,50 +508,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_1</t>
+          <t>model_1_30_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9992448802751366</v>
+        <v>0.9363170074900097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8262215208947812</v>
+        <v>0.7198787028544517</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8136015188367913</v>
+        <v>0.7357963152870702</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9972604387941553</v>
+        <v>0.8248972555659476</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003143206014049172</v>
+        <v>0.2044406950427009</v>
       </c>
       <c r="G2" t="n">
-        <v>1.162057489952918</v>
+        <v>1.873172403852254</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6667365591158705</v>
+        <v>0.9450412608083117</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01368750669129045</v>
+        <v>0.2609816939950943</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1040825888346981</v>
+        <v>1.574177128249154</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05606430249320125</v>
+        <v>0.4521511860458854</v>
       </c>
       <c r="L2" t="n">
-        <v>1.048327662391259</v>
+        <v>0.9132827336034175</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0569472592137277</v>
+        <v>0.459272115240744</v>
       </c>
       <c r="N2" t="n">
-        <v>141.525023952739</v>
+        <v>37.17495469069709</v>
       </c>
       <c r="O2" t="n">
-        <v>282.8601964959554</v>
+        <v>74.13953827892291</v>
       </c>
     </row>
     <row r="3">
@@ -561,193 +561,193 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994800823103319</v>
+        <v>0.9394420901783992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8261981878418503</v>
+        <v>0.7198359850609471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8145031080777017</v>
+        <v>0.7386193048352181</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9985307402024628</v>
+        <v>0.8612428017516767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00216417126339883</v>
+        <v>0.194408282122092</v>
       </c>
       <c r="G3" t="n">
-        <v>1.162213518185306</v>
+        <v>1.873458057934116</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6635116266782819</v>
+        <v>0.934943590880926</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007340775328227774</v>
+        <v>0.2068105144205733</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1010191808494176</v>
+        <v>1.468592894480157</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04652065415918858</v>
+        <v>0.4409175457181218</v>
       </c>
       <c r="L3" t="n">
-        <v>1.033274732138757</v>
+        <v>0.9175381653493095</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04725330795860262</v>
+        <v>0.4478615563073386</v>
       </c>
       <c r="N3" t="n">
-        <v>142.2714355581565</v>
+        <v>37.27558956870919</v>
       </c>
       <c r="O3" t="n">
-        <v>283.6066081013729</v>
+        <v>74.24017315693501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_7</t>
+          <t>model_1_30_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.998969479084711</v>
+        <v>0.9373394748862076</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8260237325019132</v>
+        <v>0.7197247661791792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8117773385256931</v>
+        <v>0.7354801046541826</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9958919058750906</v>
+        <v>0.8376841875091208</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004289570821534999</v>
+        <v>0.2011582810590238</v>
       </c>
       <c r="G4" t="n">
-        <v>1.163380101846758</v>
+        <v>1.874201779108614</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6732615463166171</v>
+        <v>0.9461723279072051</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02052502630829553</v>
+        <v>0.2419234252608418</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09635533497445309</v>
+        <v>1.539849471871675</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06549481522635971</v>
+        <v>0.4485067235382584</v>
       </c>
       <c r="L4" t="n">
-        <v>1.065953338578495</v>
+        <v>0.9146750296322828</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06652629309537922</v>
+        <v>0.4555702560917479</v>
       </c>
       <c r="N4" t="n">
-        <v>140.9031371852939</v>
+        <v>37.20732642571587</v>
       </c>
       <c r="O4" t="n">
-        <v>282.2383097285103</v>
+        <v>74.17191001394168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_4</t>
+          <t>model_1_30_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9990372696853077</v>
+        <v>0.935541424658931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8260105637026582</v>
+        <v>0.7196282621625514</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8121298482447373</v>
+        <v>0.7333481011840782</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9962203907263297</v>
+        <v>0.8174232567220814</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004007390636756768</v>
+        <v>0.2069305386696951</v>
       </c>
       <c r="G5" t="n">
-        <v>1.163468161668013</v>
+        <v>1.874847101912165</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6720006394912837</v>
+        <v>0.9537983806991044</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01888383698581199</v>
+        <v>0.2721213074003213</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09396422142515504</v>
+        <v>1.593405115239285</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06330395435323743</v>
+        <v>0.4548961844967433</v>
       </c>
       <c r="L5" t="n">
-        <v>1.061614740140307</v>
+        <v>0.9122266208121613</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06430092835356266</v>
+        <v>0.4620603446732112</v>
       </c>
       <c r="N5" t="n">
-        <v>141.0392299269913</v>
+        <v>37.15074420802488</v>
       </c>
       <c r="O5" t="n">
-        <v>282.3744024702077</v>
+        <v>74.1153277962507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_6</t>
+          <t>model_1_30_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9990225288655423</v>
+        <v>0.9285401128405253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8259804398022355</v>
+        <v>0.7188758261440747</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8122667481291868</v>
+        <v>0.7256358792946076</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9961357896398626</v>
+        <v>0.7402801167961121</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004068749692563597</v>
+        <v>0.2294067603098918</v>
       </c>
       <c r="G6" t="n">
-        <v>1.163669600328848</v>
+        <v>1.879878645032367</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6715109565425196</v>
+        <v>0.981384551217422</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01930652436167299</v>
+        <v>0.3870992159593878</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09360356276341039</v>
+        <v>1.759317412683537</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0637867517009888</v>
+        <v>0.4789642578626215</v>
       </c>
       <c r="L6" t="n">
-        <v>1.062558152605291</v>
+        <v>0.9026929196126302</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06479132927692083</v>
+        <v>0.4865074661353553</v>
       </c>
       <c r="N6" t="n">
-        <v>141.0088390551356</v>
+        <v>36.9445172103847</v>
       </c>
       <c r="O6" t="n">
-        <v>282.344011598352</v>
+        <v>73.90910079861052</v>
       </c>
     </row>
     <row r="7">
@@ -757,242 +757,242 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9990395894310732</v>
+        <v>0.9239560200766426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8259488568686763</v>
+        <v>0.7182965365627791</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8122774891117305</v>
+        <v>0.7239607258096818</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9962225970269705</v>
+        <v>0.6900646001443207</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003997734633078034</v>
+        <v>0.2441230145851819</v>
       </c>
       <c r="G7" t="n">
-        <v>1.163880795550984</v>
+        <v>1.883752357129874</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6714725366707586</v>
+        <v>0.9873764781020219</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01887281377716101</v>
+        <v>0.4619428778504732</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09300858993422287</v>
+        <v>1.843823649991746</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06322764136893004</v>
+        <v>0.4940880635931027</v>
       </c>
       <c r="L7" t="n">
-        <v>1.061466276411316</v>
+        <v>0.8964507507426622</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06422341351603743</v>
+        <v>0.5018694566878323</v>
       </c>
       <c r="N7" t="n">
-        <v>141.0440548400496</v>
+        <v>36.82016604519592</v>
       </c>
       <c r="O7" t="n">
-        <v>282.379227383266</v>
+        <v>73.78474963342174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_8</t>
+          <t>model_1_30_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9988211613752731</v>
+        <v>0.9206965058839346</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8258944575366921</v>
+        <v>0.7178959248151933</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8106153347692263</v>
+        <v>0.7226684752076256</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9952375767568832</v>
+        <v>0.6541315252799159</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00490694724668338</v>
+        <v>0.2545869912419671</v>
       </c>
       <c r="G8" t="n">
-        <v>1.164244564134448</v>
+        <v>1.886431249730628</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6774179663766499</v>
+        <v>0.9919987835765822</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02379421195914458</v>
+        <v>0.5154992899950975</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09973006442190201</v>
+        <v>1.898064534183283</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07004960561404597</v>
+        <v>0.5045661415929205</v>
       </c>
       <c r="L8" t="n">
-        <v>1.075445671982521</v>
+        <v>0.8920122633313152</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07115281687855159</v>
+        <v>0.5125125539419121</v>
       </c>
       <c r="N8" t="n">
-        <v>140.6342065451142</v>
+        <v>36.73622537810089</v>
       </c>
       <c r="O8" t="n">
-        <v>281.9693790883306</v>
+        <v>73.7008089663267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_9</t>
+          <t>model_1_30_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9987828401738227</v>
+        <v>0.9162318230338716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8258432930955613</v>
+        <v>0.7172645046144913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8104998294474768</v>
+        <v>0.7213737631907817</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9950389947759192</v>
+        <v>0.6052354916437033</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005066460270775315</v>
+        <v>0.2689199054006243</v>
       </c>
       <c r="G9" t="n">
-        <v>1.16458670098788</v>
+        <v>1.890653559520145</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6778311222151643</v>
+        <v>0.9966298933891162</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02478637529808225</v>
+        <v>0.5883763298682558</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09274854195413439</v>
+        <v>1.965735612007857</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07117907185946803</v>
+        <v>0.5185748792610613</v>
       </c>
       <c r="L9" t="n">
-        <v>1.077898228875348</v>
+        <v>0.8859326951950592</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07230007108828702</v>
+        <v>0.5267419152247259</v>
       </c>
       <c r="N9" t="n">
-        <v>140.5702257533179</v>
+        <v>36.62668338631305</v>
       </c>
       <c r="O9" t="n">
-        <v>281.9053982965343</v>
+        <v>73.59126697453887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_3</t>
+          <t>model_1_30_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9991299707595814</v>
+        <v>0.9003298815329593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8256734703286038</v>
+        <v>0.714382204554879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8123350661229041</v>
+        <v>0.7169671597005165</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9966570645638263</v>
+        <v>0.4323944850241167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00362151994026752</v>
+        <v>0.3199697044888954</v>
       </c>
       <c r="G10" t="n">
-        <v>1.165722306612487</v>
+        <v>1.909927513290544</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6712665870402975</v>
+        <v>1.012392058564244</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01670210946685946</v>
+        <v>0.8459870192106256</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1033601364503274</v>
+        <v>2.169259697916349</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06017906563139312</v>
+        <v>0.5656586466137465</v>
       </c>
       <c r="L10" t="n">
-        <v>1.055681871386788</v>
+        <v>0.8642789876193488</v>
       </c>
       <c r="M10" t="n">
-        <v>0.061126825758092</v>
+        <v>0.5745672048467161</v>
       </c>
       <c r="N10" t="n">
-        <v>141.2417229365288</v>
+        <v>36.27905792228476</v>
       </c>
       <c r="O10" t="n">
-        <v>282.5768954797452</v>
+        <v>73.24364151051059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_2</t>
+          <t>model_1_30_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999271864900088</v>
+        <v>0.8948241864481787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8256430435415065</v>
+        <v>0.7137036210775988</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8133260606955858</v>
+        <v>0.7173392312450828</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9973344197556616</v>
+        <v>0.3694145390329702</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003030881792284521</v>
+        <v>0.3376445668887605</v>
       </c>
       <c r="G11" t="n">
-        <v>1.165925770677909</v>
+        <v>1.914465204127706</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6677218569149819</v>
+        <v>1.011061180223278</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01331788001403819</v>
+        <v>0.9398554108547061</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1032384683903649</v>
+        <v>2.230939226994265</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05505344487209244</v>
+        <v>0.5810719119771326</v>
       </c>
       <c r="L11" t="n">
-        <v>1.046600646394367</v>
+        <v>0.8567818709081583</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05592048159557333</v>
+        <v>0.5902232137319628</v>
       </c>
       <c r="N11" t="n">
-        <v>141.5978033624864</v>
+        <v>36.17152302809318</v>
       </c>
       <c r="O11" t="n">
-        <v>282.9329759057027</v>
+        <v>73.136106616319</v>
       </c>
     </row>
   </sheetData>
